--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H2">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I2">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J2">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.257122666666667</v>
+        <v>5.990582666666667</v>
       </c>
       <c r="N2">
-        <v>24.771368</v>
+        <v>17.971748</v>
       </c>
       <c r="O2">
-        <v>0.1138955057524549</v>
+        <v>0.07479837685163046</v>
       </c>
       <c r="P2">
-        <v>0.1259390917552632</v>
+        <v>0.08342327308652972</v>
       </c>
       <c r="Q2">
-        <v>3.960809629237334</v>
+        <v>3.742133280664889</v>
       </c>
       <c r="R2">
-        <v>35.647286663136</v>
+        <v>33.679199525984</v>
       </c>
       <c r="S2">
-        <v>0.00035286555163405</v>
+        <v>0.0003206358064175868</v>
       </c>
       <c r="T2">
-        <v>0.0003914249039827709</v>
+        <v>0.0003586778187794071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H3">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I3">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J3">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.033196000000001</v>
+        <v>7.033196</v>
       </c>
       <c r="N3">
         <v>21.099588</v>
       </c>
       <c r="O3">
-        <v>0.09701314220629351</v>
+        <v>0.08781644026157832</v>
       </c>
       <c r="P3">
-        <v>0.1072715462920841</v>
+        <v>0.09794243118350342</v>
       </c>
       <c r="Q3">
-        <v>3.373711590064</v>
+        <v>4.393421856522666</v>
       </c>
       <c r="R3">
-        <v>30.363404310576</v>
+        <v>39.540796708704</v>
       </c>
       <c r="S3">
-        <v>0.0003005614287782242</v>
+        <v>0.0003764399218962361</v>
       </c>
       <c r="T3">
-        <v>0.0003334052526681621</v>
+        <v>0.000421102844363506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H4">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I4">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J4">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.55885866666667</v>
+        <v>19.405075</v>
       </c>
       <c r="N4">
-        <v>55.676576</v>
+        <v>58.215225</v>
       </c>
       <c r="O4">
-        <v>0.2559936044745285</v>
+        <v>0.2422916423072735</v>
       </c>
       <c r="P4">
-        <v>0.2830629868113413</v>
+        <v>0.2702299527552229</v>
       </c>
       <c r="Q4">
-        <v>8.902387560661333</v>
+        <v>12.12175526353333</v>
       </c>
       <c r="R4">
-        <v>80.12148804595199</v>
+        <v>109.0957973718</v>
       </c>
       <c r="S4">
-        <v>0.0007931070138449804</v>
+        <v>0.001038623822994639</v>
       </c>
       <c r="T4">
-        <v>0.0008797737135425643</v>
+        <v>0.001161851920177848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H5">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I5">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J5">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.7988185</v>
+        <v>24.8407555</v>
       </c>
       <c r="N5">
-        <v>41.597637</v>
+        <v>49.681511</v>
       </c>
       <c r="O5">
-        <v>0.2868907303114243</v>
+        <v>0.3101615142558551</v>
       </c>
       <c r="P5">
-        <v>0.2114848329307098</v>
+        <v>0.2306172031515482</v>
       </c>
       <c r="Q5">
-        <v>9.976860453354</v>
+        <v>15.51725817768133</v>
       </c>
       <c r="R5">
-        <v>59.861162720124</v>
+        <v>93.10354906608799</v>
       </c>
       <c r="S5">
-        <v>0.0008888309959311472</v>
+        <v>0.001329559429349544</v>
       </c>
       <c r="T5">
-        <v>0.0006573052836094945</v>
+        <v>0.0009915371615017703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.479684</v>
+        <v>0.6246693333333333</v>
       </c>
       <c r="H6">
-        <v>1.439052</v>
+        <v>1.874008</v>
       </c>
       <c r="I6">
-        <v>0.00309815167247233</v>
+        <v>0.004286667972135248</v>
       </c>
       <c r="J6">
-        <v>0.003108049284200214</v>
+        <v>0.004299493480762534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.849357</v>
+        <v>22.82013233333333</v>
       </c>
       <c r="N6">
-        <v>53.548071</v>
+        <v>68.460397</v>
       </c>
       <c r="O6">
-        <v>0.2462070172552991</v>
+        <v>0.2849320263236626</v>
       </c>
       <c r="P6">
-        <v>0.2722415422106017</v>
+        <v>0.3177871398231958</v>
       </c>
       <c r="Q6">
-        <v>8.562050963188</v>
+        <v>14.25503685124178</v>
       </c>
       <c r="R6">
-        <v>77.058458668692</v>
+        <v>128.295331661176</v>
       </c>
       <c r="S6">
-        <v>0.0007627866822839286</v>
+        <v>0.001221408991477242</v>
       </c>
       <c r="T6">
-        <v>0.000846140130397223</v>
+        <v>0.001366323735940002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>22.35043633333333</v>
       </c>
       <c r="H7">
-        <v>67.05130899999999</v>
+        <v>67.051309</v>
       </c>
       <c r="I7">
-        <v>0.1443555376176879</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J7">
-        <v>0.1448167077646516</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.257122666666667</v>
+        <v>5.990582666666667</v>
       </c>
       <c r="N7">
-        <v>24.771368</v>
+        <v>17.971748</v>
       </c>
       <c r="O7">
-        <v>0.1138955057524549</v>
+        <v>0.07479837685163046</v>
       </c>
       <c r="P7">
-        <v>0.1259390917552632</v>
+        <v>0.08342327308652972</v>
       </c>
       <c r="Q7">
-        <v>184.5502944578569</v>
+        <v>133.8921364909036</v>
       </c>
       <c r="R7">
-        <v>1660.952650120712</v>
+        <v>1205.029228418132</v>
       </c>
       <c r="S7">
-        <v>0.01644144696513409</v>
+        <v>0.01147222985844767</v>
       </c>
       <c r="T7">
-        <v>0.01823808464686759</v>
+        <v>0.01283335890691183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>22.35043633333333</v>
       </c>
       <c r="H8">
-        <v>67.05130899999999</v>
+        <v>67.051309</v>
       </c>
       <c r="I8">
-        <v>0.1443555376176879</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J8">
-        <v>0.1448167077646516</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.033196000000001</v>
+        <v>7.033196</v>
       </c>
       <c r="N8">
         <v>21.099588</v>
       </c>
       <c r="O8">
-        <v>0.09701314220629351</v>
+        <v>0.08781644026157832</v>
       </c>
       <c r="P8">
-        <v>0.1072715462920841</v>
+        <v>0.09794243118350342</v>
       </c>
       <c r="Q8">
         <v>157.1949994178547</v>
@@ -948,10 +948,10 @@
         <v>1414.754994760692</v>
       </c>
       <c r="S8">
-        <v>0.0140043842991707</v>
+        <v>0.01346888034789627</v>
       </c>
       <c r="T8">
-        <v>0.01553471217084303</v>
+        <v>0.01506690309656968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>22.35043633333333</v>
       </c>
       <c r="H9">
-        <v>67.05130899999999</v>
+        <v>67.051309</v>
       </c>
       <c r="I9">
-        <v>0.1443555376176879</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J9">
-        <v>0.1448167077646516</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.55885866666667</v>
+        <v>19.405075</v>
       </c>
       <c r="N9">
-        <v>55.676576</v>
+        <v>58.215225</v>
       </c>
       <c r="O9">
-        <v>0.2559936044745285</v>
+        <v>0.2422916423072735</v>
       </c>
       <c r="P9">
-        <v>0.2830629868113413</v>
+        <v>0.2702299527552229</v>
       </c>
       <c r="Q9">
-        <v>414.7985890486648</v>
+        <v>433.7118933310584</v>
       </c>
       <c r="R9">
-        <v>3733.187301437983</v>
+        <v>3903.407039979526</v>
       </c>
       <c r="S9">
-        <v>0.03695409440061029</v>
+        <v>0.03716157395826211</v>
       </c>
       <c r="T9">
-        <v>0.04099224984004744</v>
+        <v>0.04157062942745615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>22.35043633333333</v>
       </c>
       <c r="H10">
-        <v>67.05130899999999</v>
+        <v>67.051309</v>
       </c>
       <c r="I10">
-        <v>0.1443555376176879</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J10">
-        <v>0.1448167077646516</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.7988185</v>
+        <v>24.8407555</v>
       </c>
       <c r="N10">
-        <v>41.597637</v>
+        <v>49.681511</v>
       </c>
       <c r="O10">
-        <v>0.2868907303114243</v>
+        <v>0.3101615142558551</v>
       </c>
       <c r="P10">
-        <v>0.2114848329307098</v>
+        <v>0.2306172031515482</v>
       </c>
       <c r="Q10">
-        <v>464.8626686928054</v>
+        <v>555.2017242746499</v>
       </c>
       <c r="R10">
-        <v>2789.176012156832</v>
+        <v>3331.210345647899</v>
       </c>
       <c r="S10">
-        <v>0.04141426561163675</v>
+        <v>0.04757114170866932</v>
       </c>
       <c r="T10">
-        <v>0.03062653724718276</v>
+        <v>0.0354768307290247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>22.35043633333333</v>
       </c>
       <c r="H11">
-        <v>67.05130899999999</v>
+        <v>67.051309</v>
       </c>
       <c r="I11">
-        <v>0.1443555376176879</v>
+        <v>0.1533753851531285</v>
       </c>
       <c r="J11">
-        <v>0.1448167077646516</v>
+        <v>0.1538342770799774</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.849357</v>
+        <v>22.82013233333333</v>
       </c>
       <c r="N11">
-        <v>53.548071</v>
+        <v>68.460397</v>
       </c>
       <c r="O11">
-        <v>0.2462070172552991</v>
+        <v>0.2849320263236626</v>
       </c>
       <c r="P11">
-        <v>0.2722415422106017</v>
+        <v>0.3177871398231958</v>
       </c>
       <c r="Q11">
-        <v>398.9409172194377</v>
+        <v>510.0399148344081</v>
       </c>
       <c r="R11">
-        <v>3590.468254974939</v>
+        <v>4590.359233509674</v>
       </c>
       <c r="S11">
-        <v>0.03554134634113604</v>
+        <v>0.04370155927985309</v>
       </c>
       <c r="T11">
-        <v>0.03942512385971076</v>
+        <v>0.04888655492001501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.46539633333334</v>
+        <v>51.64088533333334</v>
       </c>
       <c r="H12">
-        <v>190.396189</v>
+        <v>154.922656</v>
       </c>
       <c r="I12">
-        <v>0.409906154456342</v>
+        <v>0.354375214851445</v>
       </c>
       <c r="J12">
-        <v>0.4112156745801395</v>
+        <v>0.3554354887996299</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.257122666666667</v>
+        <v>5.990582666666667</v>
       </c>
       <c r="N12">
-        <v>24.771368</v>
+        <v>17.971748</v>
       </c>
       <c r="O12">
-        <v>0.1138955057524549</v>
+        <v>0.07479837685163046</v>
       </c>
       <c r="P12">
-        <v>0.1259390917552632</v>
+        <v>0.08342327308652972</v>
       </c>
       <c r="Q12">
-        <v>524.0415626129503</v>
+        <v>309.3589925691876</v>
       </c>
       <c r="R12">
-        <v>4716.374063516553</v>
+        <v>2784.230933122688</v>
       </c>
       <c r="S12">
-        <v>0.04668646877284897</v>
+        <v>0.02650669086733589</v>
       </c>
       <c r="T12">
-        <v>0.05178812857215064</v>
+        <v>0.0296515918467757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.46539633333334</v>
+        <v>51.64088533333334</v>
       </c>
       <c r="H13">
-        <v>190.396189</v>
+        <v>154.922656</v>
       </c>
       <c r="I13">
-        <v>0.409906154456342</v>
+        <v>0.354375214851445</v>
       </c>
       <c r="J13">
-        <v>0.4112156745801395</v>
+        <v>0.3554354887996299</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.033196000000001</v>
+        <v>7.033196</v>
       </c>
       <c r="N13">
         <v>21.099588</v>
       </c>
       <c r="O13">
-        <v>0.09701314220629351</v>
+        <v>0.08781644026157832</v>
       </c>
       <c r="P13">
-        <v>0.1072715462920841</v>
+        <v>0.09794243118350342</v>
       </c>
       <c r="Q13">
-        <v>446.3645716300148</v>
+        <v>363.2004681628587</v>
       </c>
       <c r="R13">
-        <v>4017.281144670133</v>
+        <v>3268.804213465728</v>
       </c>
       <c r="S13">
-        <v>0.03976628405350802</v>
+        <v>0.0311199698851859</v>
       </c>
       <c r="T13">
-        <v>0.04411174127175401</v>
+        <v>0.03481221590193265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.46539633333334</v>
+        <v>51.64088533333334</v>
       </c>
       <c r="H14">
-        <v>190.396189</v>
+        <v>154.922656</v>
       </c>
       <c r="I14">
-        <v>0.409906154456342</v>
+        <v>0.354375214851445</v>
       </c>
       <c r="J14">
-        <v>0.4112156745801395</v>
+        <v>0.3554354887996299</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.55885866666667</v>
+        <v>19.405075</v>
       </c>
       <c r="N14">
-        <v>55.676576</v>
+        <v>58.215225</v>
       </c>
       <c r="O14">
-        <v>0.2559936044745285</v>
+        <v>0.2422916423072735</v>
       </c>
       <c r="P14">
-        <v>0.2830629868113413</v>
+        <v>0.2702299527552229</v>
       </c>
       <c r="Q14">
-        <v>1177.845320774318</v>
+        <v>1002.095252959733</v>
       </c>
       <c r="R14">
-        <v>10600.60788696886</v>
+        <v>9018.857276637602</v>
       </c>
       <c r="S14">
-        <v>0.1049333539755718</v>
+        <v>0.0858621527993495</v>
       </c>
       <c r="T14">
-        <v>0.1163999370702948</v>
+        <v>0.09604931534585354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.46539633333334</v>
+        <v>51.64088533333334</v>
       </c>
       <c r="H15">
-        <v>190.396189</v>
+        <v>154.922656</v>
       </c>
       <c r="I15">
-        <v>0.409906154456342</v>
+        <v>0.354375214851445</v>
       </c>
       <c r="J15">
-        <v>0.4112156745801395</v>
+        <v>0.3554354887996299</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.7988185</v>
+        <v>24.8407555</v>
       </c>
       <c r="N15">
-        <v>41.597637</v>
+        <v>49.681511</v>
       </c>
       <c r="O15">
-        <v>0.2868907303114243</v>
+        <v>0.3101615142558551</v>
       </c>
       <c r="P15">
-        <v>0.2114848329307098</v>
+        <v>0.2306172031515482</v>
       </c>
       <c r="Q15">
-        <v>1320.005259367565</v>
+        <v>1282.79860636887</v>
       </c>
       <c r="R15">
-        <v>7920.031556205394</v>
+        <v>7696.791638213217</v>
       </c>
       <c r="S15">
-        <v>0.1175982760111274</v>
+        <v>0.1099135532530682</v>
       </c>
       <c r="T15">
-        <v>0.08696587823706992</v>
+        <v>0.08196953832777408</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.46539633333334</v>
+        <v>51.64088533333334</v>
       </c>
       <c r="H16">
-        <v>190.396189</v>
+        <v>154.922656</v>
       </c>
       <c r="I16">
-        <v>0.409906154456342</v>
+        <v>0.354375214851445</v>
       </c>
       <c r="J16">
-        <v>0.4112156745801395</v>
+        <v>0.3554354887996299</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.849357</v>
+        <v>22.82013233333333</v>
       </c>
       <c r="N16">
-        <v>53.548071</v>
+        <v>68.460397</v>
       </c>
       <c r="O16">
-        <v>0.2462070172552991</v>
+        <v>0.2849320263236626</v>
       </c>
       <c r="P16">
-        <v>0.2722415422106017</v>
+        <v>0.3177871398231958</v>
       </c>
       <c r="Q16">
-        <v>1132.816516300158</v>
+        <v>1178.451837117159</v>
       </c>
       <c r="R16">
-        <v>10195.34864670142</v>
+        <v>10606.06653405443</v>
       </c>
       <c r="S16">
-        <v>0.1009217716432859</v>
+        <v>0.1009728480465055</v>
       </c>
       <c r="T16">
-        <v>0.1119499894288701</v>
+        <v>0.1129528273772939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.479164</v>
+        <v>1.304094</v>
       </c>
       <c r="H17">
-        <v>2.958328</v>
+        <v>2.608188</v>
       </c>
       <c r="I17">
-        <v>0.00955352778174978</v>
+        <v>0.008949083433667964</v>
       </c>
       <c r="J17">
-        <v>0.006389365514817709</v>
+        <v>0.005983905779806209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.257122666666667</v>
+        <v>5.990582666666667</v>
       </c>
       <c r="N17">
-        <v>24.771368</v>
+        <v>17.971748</v>
       </c>
       <c r="O17">
-        <v>0.1138955057524549</v>
+        <v>0.07479837685163046</v>
       </c>
       <c r="P17">
-        <v>0.1259390917552632</v>
+        <v>0.08342327308652972</v>
       </c>
       <c r="Q17">
-        <v>12.21363859211734</v>
+        <v>7.812282912104002</v>
       </c>
       <c r="R17">
-        <v>73.28183155270402</v>
+        <v>46.87369747262401</v>
       </c>
       <c r="S17">
-        <v>0.00108810387842252</v>
+        <v>0.0006693769151481795</v>
       </c>
       <c r="T17">
-        <v>0.0008046708898285419</v>
+        <v>0.0004991970059928369</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.479164</v>
+        <v>1.304094</v>
       </c>
       <c r="H18">
-        <v>2.958328</v>
+        <v>2.608188</v>
       </c>
       <c r="I18">
-        <v>0.00955352778174978</v>
+        <v>0.008949083433667964</v>
       </c>
       <c r="J18">
-        <v>0.006389365514817709</v>
+        <v>0.005983905779806209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.033196000000001</v>
+        <v>7.033196</v>
       </c>
       <c r="N18">
         <v>21.099588</v>
       </c>
       <c r="O18">
-        <v>0.09701314220629351</v>
+        <v>0.08781644026157832</v>
       </c>
       <c r="P18">
-        <v>0.1072715462920841</v>
+        <v>0.09794243118350342</v>
       </c>
       <c r="Q18">
-        <v>10.403250328144</v>
+        <v>9.171948704424</v>
       </c>
       <c r="R18">
-        <v>62.41950196886402</v>
+        <v>55.031692226544</v>
       </c>
       <c r="S18">
-        <v>0.0009268177492626672</v>
+        <v>0.000785876650748583</v>
       </c>
       <c r="T18">
-        <v>0.0006853971185998134</v>
+        <v>0.000586078280047238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.479164</v>
+        <v>1.304094</v>
       </c>
       <c r="H19">
-        <v>2.958328</v>
+        <v>2.608188</v>
       </c>
       <c r="I19">
-        <v>0.00955352778174978</v>
+        <v>0.008949083433667964</v>
       </c>
       <c r="J19">
-        <v>0.006389365514817709</v>
+        <v>0.005983905779806209</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.55885866666667</v>
+        <v>19.405075</v>
       </c>
       <c r="N19">
-        <v>55.676576</v>
+        <v>58.215225</v>
       </c>
       <c r="O19">
-        <v>0.2559936044745285</v>
+        <v>0.2422916423072735</v>
       </c>
       <c r="P19">
-        <v>0.2830629868113413</v>
+        <v>0.2702299527552229</v>
       </c>
       <c r="Q19">
-        <v>27.45159562082133</v>
+        <v>25.30604187705</v>
       </c>
       <c r="R19">
-        <v>164.709573724928</v>
+        <v>151.8362512623</v>
       </c>
       <c r="S19">
-        <v>0.002445642012297672</v>
+        <v>0.002168288122288226</v>
       </c>
       <c r="T19">
-        <v>0.001808592886453684</v>
+        <v>0.001617030576168737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.479164</v>
+        <v>1.304094</v>
       </c>
       <c r="H20">
-        <v>2.958328</v>
+        <v>2.608188</v>
       </c>
       <c r="I20">
-        <v>0.00955352778174978</v>
+        <v>0.008949083433667964</v>
       </c>
       <c r="J20">
-        <v>0.006389365514817709</v>
+        <v>0.005983905779806209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.7988185</v>
+        <v>24.8407555</v>
       </c>
       <c r="N20">
-        <v>41.597637</v>
+        <v>49.681511</v>
       </c>
       <c r="O20">
-        <v>0.2868907303114243</v>
+        <v>0.3101615142558551</v>
       </c>
       <c r="P20">
-        <v>0.2114848329307098</v>
+        <v>0.2306172031515482</v>
       </c>
       <c r="Q20">
-        <v>30.764863567734</v>
+        <v>32.394680203017</v>
       </c>
       <c r="R20">
-        <v>123.059454270936</v>
+        <v>129.578720812068</v>
       </c>
       <c r="S20">
-        <v>0.002740818562356675</v>
+        <v>0.002775661268988443</v>
       </c>
       <c r="T20">
-        <v>0.001351253898434462</v>
+        <v>0.001379991614861292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.479164</v>
+        <v>1.304094</v>
       </c>
       <c r="H21">
-        <v>2.958328</v>
+        <v>2.608188</v>
       </c>
       <c r="I21">
-        <v>0.00955352778174978</v>
+        <v>0.008949083433667964</v>
       </c>
       <c r="J21">
-        <v>0.006389365514817709</v>
+        <v>0.005983905779806209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.849357</v>
+        <v>22.82013233333333</v>
       </c>
       <c r="N21">
-        <v>53.548071</v>
+        <v>68.460397</v>
       </c>
       <c r="O21">
-        <v>0.2462070172552991</v>
+        <v>0.2849320263236626</v>
       </c>
       <c r="P21">
-        <v>0.2722415422106017</v>
+        <v>0.3177871398231958</v>
       </c>
       <c r="Q21">
-        <v>26.402126297548</v>
+        <v>29.759597655106</v>
       </c>
       <c r="R21">
-        <v>158.412757785288</v>
+        <v>178.557585930636</v>
       </c>
       <c r="S21">
-        <v>0.002352145579410247</v>
+        <v>0.002549880476494534</v>
       </c>
       <c r="T21">
-        <v>0.001739450721501208</v>
+        <v>0.001901608302736105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.05440800000001</v>
+        <v>69.80366533333334</v>
       </c>
       <c r="H22">
-        <v>201.163224</v>
+        <v>209.410996</v>
       </c>
       <c r="I22">
-        <v>0.4330866284717481</v>
+        <v>0.4790136485896233</v>
       </c>
       <c r="J22">
-        <v>0.4344702028561911</v>
+        <v>0.480446834859824</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.257122666666667</v>
+        <v>5.990582666666667</v>
       </c>
       <c r="N22">
-        <v>24.771368</v>
+        <v>17.971748</v>
       </c>
       <c r="O22">
-        <v>0.1138955057524549</v>
+        <v>0.07479837685163046</v>
       </c>
       <c r="P22">
-        <v>0.1259390917552632</v>
+        <v>0.08342327308652972</v>
       </c>
       <c r="Q22">
-        <v>553.6764721967148</v>
+        <v>418.1646276156677</v>
       </c>
       <c r="R22">
-        <v>4983.088249770432</v>
+        <v>3763.481648541008</v>
       </c>
       <c r="S22">
-        <v>0.04932662058441528</v>
+        <v>0.03582944340428112</v>
       </c>
       <c r="T22">
-        <v>0.05471678274243366</v>
+        <v>0.04008044750806995</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.05440800000001</v>
+        <v>69.80366533333334</v>
       </c>
       <c r="H23">
-        <v>201.163224</v>
+        <v>209.410996</v>
       </c>
       <c r="I23">
-        <v>0.4330866284717481</v>
+        <v>0.4790136485896233</v>
       </c>
       <c r="J23">
-        <v>0.4344702028561911</v>
+        <v>0.480446834859824</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.033196000000001</v>
+        <v>7.033196</v>
       </c>
       <c r="N23">
         <v>21.099588</v>
       </c>
       <c r="O23">
-        <v>0.09701314220629351</v>
+        <v>0.08781644026157832</v>
       </c>
       <c r="P23">
-        <v>0.1072715462920841</v>
+        <v>0.09794243118350342</v>
       </c>
       <c r="Q23">
-        <v>471.6067941279682</v>
+        <v>490.9428598077387</v>
       </c>
       <c r="R23">
-        <v>4244.461147151713</v>
+        <v>4418.485738269648</v>
       </c>
       <c r="S23">
-        <v>0.0420150946755739</v>
+        <v>0.04206527345585132</v>
       </c>
       <c r="T23">
-        <v>0.04660629047821906</v>
+        <v>0.04705613106059035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.05440800000001</v>
+        <v>69.80366533333334</v>
       </c>
       <c r="H24">
-        <v>201.163224</v>
+        <v>209.410996</v>
       </c>
       <c r="I24">
-        <v>0.4330866284717481</v>
+        <v>0.4790136485896233</v>
       </c>
       <c r="J24">
-        <v>0.4344702028561911</v>
+        <v>0.480446834859824</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.55885866666667</v>
+        <v>19.405075</v>
       </c>
       <c r="N24">
-        <v>55.676576</v>
+        <v>58.215225</v>
       </c>
       <c r="O24">
-        <v>0.2559936044745285</v>
+        <v>0.2422916423072735</v>
       </c>
       <c r="P24">
-        <v>0.2830629868113413</v>
+        <v>0.2702299527552229</v>
       </c>
       <c r="Q24">
-        <v>1244.453281049003</v>
+        <v>1354.545361068233</v>
       </c>
       <c r="R24">
-        <v>11200.07952944102</v>
+        <v>12190.9082496141</v>
       </c>
       <c r="S24">
-        <v>0.1108674070722037</v>
+        <v>0.116061003604379</v>
       </c>
       <c r="T24">
-        <v>0.1229824333010028</v>
+        <v>0.1298311254855666</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.05440800000001</v>
+        <v>69.80366533333334</v>
       </c>
       <c r="H25">
-        <v>201.163224</v>
+        <v>209.410996</v>
       </c>
       <c r="I25">
-        <v>0.4330866284717481</v>
+        <v>0.4790136485896233</v>
       </c>
       <c r="J25">
-        <v>0.4344702028561911</v>
+        <v>0.480446834859824</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.7988185</v>
+        <v>24.8407555</v>
       </c>
       <c r="N25">
-        <v>41.597637</v>
+        <v>49.681511</v>
       </c>
       <c r="O25">
-        <v>0.2868907303114243</v>
+        <v>0.3101615142558551</v>
       </c>
       <c r="P25">
-        <v>0.2114848329307098</v>
+        <v>0.2306172031515482</v>
       </c>
       <c r="Q25">
-        <v>1394.652461616948</v>
+        <v>1733.97578354916</v>
       </c>
       <c r="R25">
-        <v>8367.914769701689</v>
+        <v>10403.85470129496</v>
       </c>
       <c r="S25">
-        <v>0.1242485391303723</v>
+        <v>0.1485715985957796</v>
       </c>
       <c r="T25">
-        <v>0.09188385826441316</v>
+        <v>0.1107993053183864</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>67.05440800000001</v>
+        <v>69.80366533333334</v>
       </c>
       <c r="H26">
-        <v>201.163224</v>
+        <v>209.410996</v>
       </c>
       <c r="I26">
-        <v>0.4330866284717481</v>
+        <v>0.4790136485896233</v>
       </c>
       <c r="J26">
-        <v>0.4344702028561911</v>
+        <v>0.480446834859824</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.849357</v>
+        <v>22.82013233333333</v>
       </c>
       <c r="N26">
-        <v>53.548071</v>
+        <v>68.460397</v>
       </c>
       <c r="O26">
-        <v>0.2462070172552991</v>
+        <v>0.2849320263236626</v>
       </c>
       <c r="P26">
-        <v>0.2722415422106017</v>
+        <v>0.3177871398231958</v>
       </c>
       <c r="Q26">
-        <v>1196.878066815656</v>
+        <v>1592.928880258379</v>
       </c>
       <c r="R26">
-        <v>10771.90260134091</v>
+        <v>14336.35992232541</v>
       </c>
       <c r="S26">
-        <v>0.106628967009183</v>
+        <v>0.1364863295293322</v>
       </c>
       <c r="T26">
-        <v>0.1182808380701224</v>
+        <v>0.1526798254872108</v>
       </c>
     </row>
   </sheetData>
